--- a/legislator/property/output/normal/段宜康_2013-12-24_財產申報表_tmpac2a1.xlsx
+++ b/legislator/property/output/normal/段宜康_2013-12-24_財產申報表_tmpac2a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="94">
   <si>
     <t>土地坐落</t>
   </si>
@@ -192,6 +192,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>力旺電子股份有限公司</t>
   </si>
   <si>
@@ -214,6 +223,9 @@
   </si>
   <si>
     <t>.400,000</t>
+  </si>
+  <si>
+    <t>2013-12-24</t>
   </si>
   <si>
     <t>第一產物保險股份有限公司</t>
@@ -1117,13 +1129,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1142,13 +1154,22 @@
       <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>47</v>
@@ -1165,13 +1186,22 @@
       <c r="G2" s="2">
         <v>102500</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>47</v>
@@ -1188,13 +1218,22 @@
       <c r="G3" s="2">
         <v>150000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>47</v>
@@ -1211,13 +1250,22 @@
       <c r="G4" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>47</v>
@@ -1234,13 +1282,22 @@
       <c r="G5" s="2">
         <v>40000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>47</v>
@@ -1257,13 +1314,22 @@
       <c r="G6" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>47</v>
@@ -1280,13 +1346,22 @@
       <c r="G7" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="2">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>47</v>
@@ -1301,7 +1376,16 @@
         <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="2">
+        <v>917</v>
       </c>
     </row>
   </sheetData>
@@ -1319,7 +1403,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>15</v>
@@ -1342,7 +1426,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -1365,13 +1449,13 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
@@ -1388,7 +1472,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -1411,7 +1495,7 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -1434,7 +1518,7 @@
         <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -1457,7 +1541,7 @@
         <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -1480,13 +1564,13 @@
         <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
@@ -1503,7 +1587,7 @@
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1518,7 +1602,7 @@
         <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1526,7 +1610,7 @@
         <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
@@ -1549,7 +1633,7 @@
         <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -1572,7 +1656,7 @@
         <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -1605,16 +1689,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1622,16 +1706,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1639,10 +1723,10 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>47</v>
@@ -1654,10 +1738,10 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>47</v>
@@ -1669,10 +1753,10 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>47</v>
@@ -1684,10 +1768,10 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>47</v>
@@ -1699,10 +1783,10 @@
         <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>47</v>
@@ -1714,10 +1798,10 @@
         <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>47</v>
@@ -1729,10 +1813,10 @@
         <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>47</v>

--- a/legislator/property/output/normal/段宜康_2013-12-24_財產申報表_tmpac2a1.xlsx
+++ b/legislator/property/output/normal/段宜康_2013-12-24_財產申報表_tmpac2a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="96">
   <si>
     <t>土地坐落</t>
   </si>
@@ -192,6 +192,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -222,7 +225,10 @@
     <t>豐藝電子股份有限公司</t>
   </si>
   <si>
-    <t>.400,000</t>
+    <t>.400000</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-12-24</t>
@@ -1129,13 +1135,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1163,13 +1169,16 @@
       <c r="J1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>47</v>
@@ -1187,21 +1196,24 @@
         <v>102500</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="2">
+        <v>70</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="2">
         <v>917</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>47</v>
@@ -1219,21 +1231,24 @@
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="2">
+        <v>70</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2">
         <v>917</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>47</v>
@@ -1251,21 +1266,24 @@
         <v>100000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="2">
+        <v>70</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="2">
         <v>917</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>47</v>
@@ -1283,21 +1301,24 @@
         <v>40000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="2">
+        <v>70</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="2">
         <v>917</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>47</v>
@@ -1315,21 +1336,24 @@
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="2">
+        <v>70</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="2">
         <v>917</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>47</v>
@@ -1347,21 +1371,24 @@
         <v>200000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="2">
+        <v>70</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="2">
         <v>917</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>47</v>
@@ -1376,15 +1403,18 @@
         <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="2">
+        <v>70</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="2">
         <v>917</v>
       </c>
     </row>
@@ -1403,7 +1433,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>15</v>
@@ -1426,7 +1456,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -1449,13 +1479,13 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
@@ -1472,7 +1502,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -1495,7 +1525,7 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -1518,7 +1548,7 @@
         <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -1541,7 +1571,7 @@
         <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -1564,13 +1594,13 @@
         <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
@@ -1587,7 +1617,7 @@
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1602,7 +1632,7 @@
         <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1610,7 +1640,7 @@
         <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
@@ -1633,7 +1663,7 @@
         <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -1656,7 +1686,7 @@
         <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -1689,16 +1719,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1706,16 +1736,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1723,10 +1753,10 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>47</v>
@@ -1738,10 +1768,10 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>47</v>
@@ -1753,10 +1783,10 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>47</v>
@@ -1768,10 +1798,10 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>47</v>
@@ -1783,10 +1813,10 @@
         <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>47</v>
@@ -1798,10 +1828,10 @@
         <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>47</v>
@@ -1813,10 +1843,10 @@
         <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>47</v>

--- a/legislator/property/output/normal/段宜康_2013-12-24_財產申報表_tmpac2a1.xlsx
+++ b/legislator/property/output/normal/段宜康_2013-12-24_財產申報表_tmpac2a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="101">
   <si>
     <t>土地坐落</t>
   </si>
@@ -195,6 +195,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -204,6 +207,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>力旺電子股份有限公司</t>
   </si>
   <si>
@@ -231,7 +240,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-12-24</t>
+  </si>
+  <si>
+    <t>tmpac2a1</t>
   </si>
   <si>
     <t>第一產物保險股份有限公司</t>
@@ -1135,13 +1150,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1172,13 +1187,22 @@
       <c r="K1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>47</v>
@@ -1196,24 +1220,33 @@
         <v>102500</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K2" s="2">
+        <v>74</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="2">
         <v>917</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>47</v>
@@ -1231,24 +1264,33 @@
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="2">
+        <v>74</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="2">
         <v>917</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>47</v>
@@ -1266,24 +1308,33 @@
         <v>100000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="2">
+        <v>74</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="2">
         <v>917</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>47</v>
@@ -1301,24 +1352,33 @@
         <v>40000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" s="2">
+        <v>74</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="2">
         <v>917</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>47</v>
@@ -1336,24 +1396,33 @@
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="2">
+        <v>917</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="2">
         <v>69</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="2">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>47</v>
@@ -1371,24 +1440,33 @@
         <v>200000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="2">
+        <v>917</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="2">
         <v>70</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="2">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>47</v>
@@ -1403,19 +1481,28 @@
         <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="2">
+        <v>74</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="2">
         <v>917</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1433,7 +1520,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>15</v>
@@ -1456,7 +1543,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
@@ -1479,13 +1566,13 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
@@ -1502,7 +1589,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -1525,7 +1612,7 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
@@ -1548,7 +1635,7 @@
         <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -1571,7 +1658,7 @@
         <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
@@ -1594,13 +1681,13 @@
         <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
@@ -1617,7 +1704,7 @@
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1632,7 +1719,7 @@
         <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1640,7 +1727,7 @@
         <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
@@ -1663,7 +1750,7 @@
         <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
@@ -1686,7 +1773,7 @@
         <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
@@ -1719,16 +1806,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1736,16 +1823,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1753,10 +1840,10 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>47</v>
@@ -1768,10 +1855,10 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>47</v>
@@ -1783,10 +1870,10 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>47</v>
@@ -1798,10 +1885,10 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>47</v>
@@ -1813,10 +1900,10 @@
         <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>47</v>
@@ -1828,10 +1915,10 @@
         <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>47</v>
@@ -1843,10 +1930,10 @@
         <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>47</v>

--- a/legislator/property/output/normal/段宜康_2013-12-24_財產申報表_tmpac2a1.xlsx
+++ b/legislator/property/output/normal/段宜康_2013-12-24_財產申報表_tmpac2a1.xlsx
@@ -19,9 +19,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="101">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="105">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市松山區敦化段三小段01690000地號</t>
+  </si>
+  <si>
+    <t>臺北市松山區敦化段三小段01710000地號</t>
+  </si>
+  <si>
+    <t>臺北市松山區敦化段三小段01710001地號</t>
+  </si>
+  <si>
+    <t>臺北市松山區敦化段三小段01910000地號</t>
+  </si>
+  <si>
+    <t>臺北市松山區延吉段三小段08320002地號</t>
+  </si>
+  <si>
+    <t>325373分之5313</t>
+  </si>
+  <si>
+    <t>10000分之302</t>
+  </si>
+  <si>
+    <t>陳麗雯</t>
+  </si>
+  <si>
+    <t>段〇</t>
+  </si>
+  <si>
+    <t>89年10月04日</t>
+  </si>
+  <si>
+    <t>102年01月16曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>.買賣</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>7095863</t>
+  </si>
+  <si>
+    <t>4530635(無）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-24</t>
+  </si>
+  <si>
+    <t>段宜康</t>
+  </si>
+  <si>
+    <t>tmpac2a1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,82 +147,28 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市松山區敦化段三小段 0169-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市松山區敦化段三小段 0171-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市松山區敦化段三小段 0171-0001 地號</t>
-  </si>
-  <si>
-    <t>臺北市松山區敦化段三小段 0191-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市松山區延吉段三小段 0832-0002 地號</t>
-  </si>
-  <si>
-    <t>325373 分 之 5313</t>
-  </si>
-  <si>
-    <t>10000分之 302</t>
-  </si>
-  <si>
-    <t>陳麗雯</t>
-  </si>
-  <si>
-    <t>段〇</t>
-  </si>
-  <si>
-    <t>89年10月 04日-</t>
-  </si>
-  <si>
-    <t>89年10月 04日</t>
-  </si>
-  <si>
-    <t>102 年 01 月16曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>.買賣</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>7，095，863</t>
-  </si>
-  <si>
-    <t>4,530，635(無）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市松山區敦化段三小段 01482-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市松山區敦化段三小段 02061-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市松山區延吉段段三小段 02423-000 建號</t>
+    <t>臺北市松山區敦化段三小段01482000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山區敦化段三小段02061000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山區延吉段段三小段02423000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>1000分之 425</t>
+    <t>1000分之425</t>
   </si>
   <si>
     <t>50分之3</t>
   </si>
   <si>
-    <t>1,269,100</t>
-  </si>
-  <si>
-    <t>27，426(無)</t>
+    <t>1269100</t>
+  </si>
+  <si>
+    <t>27426(無)</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -138,13 +189,13 @@
     <t>臺灣銀行松山分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行光復南 路分行</t>
+    <t>合作金庫商業銀行光復南路分行</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行敦南分 行</t>
+    <t>台北富邦商業銀行敦南分行</t>
   </si>
   <si>
     <t>華南商業銀行忠興分行</t>
@@ -162,22 +213,13 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>段宜康</t>
-  </si>
-  <si>
-    <t>2,220,053</t>
-  </si>
-  <si>
-    <t>1，659,374</t>
-  </si>
-  <si>
-    <t>1,000，342</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>2220053</t>
+  </si>
+  <si>
+    <t>1659374</t>
+  </si>
+  <si>
+    <t>1000342</t>
   </si>
   <si>
     <t>quantity</t>
@@ -192,27 +234,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>力旺電子股份有限公司</t>
   </si>
   <si>
@@ -240,19 +261,10 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-24</t>
-  </si>
-  <si>
-    <t>tmpac2a1</t>
-  </si>
-  <si>
     <t>第一產物保險股份有限公司</t>
   </si>
   <si>
-    <t>三商美邦人壽保險股份有 限公司</t>
+    <t>三商美邦人壽保險股份有限公司</t>
   </si>
   <si>
     <t>廣積科技股份有限公司</t>
@@ -261,10 +273,10 @@
     <t>中國鋼鐵股份有限公司</t>
   </si>
   <si>
-    <t>一詮精密工業股份有限公 司</t>
-  </si>
-  <si>
-    <t>太子建設開發股份有限公 司</t>
+    <t>一詮精密工業股份有限公司</t>
+  </si>
+  <si>
+    <t>太子建設開發股份有限公司</t>
   </si>
   <si>
     <t>德律科技股份有限公司</t>
@@ -276,25 +288,25 @@
     <t>譜瑞科技股份有限公司</t>
   </si>
   <si>
-    <t>30，000</t>
-  </si>
-  <si>
-    <t>30，357</t>
-  </si>
-  <si>
-    <t>50，000</t>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>30357</t>
+  </si>
+  <si>
+    <t>50000</t>
   </si>
   <si>
     <t>財產種類</t>
   </si>
   <si>
-    <t>項/件</t>
+    <t>項件</t>
   </si>
   <si>
     <t>價額</t>
   </si>
   <si>
-    <t>保 險公司</t>
+    <t>保險公司</t>
   </si>
   <si>
     <t>南山人壽</t>
@@ -303,7 +315,7 @@
     <t>大都會人壽</t>
   </si>
   <si>
-    <t>保 險名稱</t>
+    <t>保險名稱</t>
   </si>
   <si>
     <t>康寧終身壽險</t>
@@ -321,7 +333,7 @@
     <t>要保人</t>
   </si>
   <si>
-    <t>備 註</t>
+    <t>備註</t>
   </si>
 </sst>
 </file>
@@ -680,13 +692,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,135 +720,261 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2">
         <v>122467</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2">
+        <v>917</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>1320</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2">
+        <v>917</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2">
         <v>12932</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2">
+        <v>917</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H5" s="2">
         <v>32331</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="2">
+        <v>917</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>633</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="2">
+        <v>917</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -854,25 +992,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -880,25 +1018,25 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>141.34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -906,22 +1044,22 @@
         <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2">
         <v>912.99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2">
         <v>177897</v>
@@ -932,25 +1070,25 @@
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2">
         <v>94.15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -968,19 +1106,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -988,19 +1126,19 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1008,19 +1146,19 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1028,16 +1166,16 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2">
         <v>658832</v>
@@ -1048,16 +1186,16 @@
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2">
         <v>460994</v>
@@ -1068,16 +1206,16 @@
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2">
         <v>277142</v>
@@ -1088,16 +1226,16 @@
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2">
         <v>215273</v>
@@ -1108,16 +1246,16 @@
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2">
         <v>261562</v>
@@ -1128,19 +1266,19 @@
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1158,43 +1296,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1202,10 +1340,10 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>10250</v>
@@ -1214,28 +1352,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2">
         <v>102500</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2">
         <v>917</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2">
         <v>65</v>
@@ -1246,10 +1384,10 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>15000</v>
@@ -1258,28 +1396,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2">
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2">
         <v>917</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="N3" s="2">
         <v>66</v>
@@ -1290,10 +1428,10 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>10000</v>
@@ -1302,28 +1440,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2">
         <v>100000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="L4" s="2">
         <v>917</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="N4" s="2">
         <v>67</v>
@@ -1334,10 +1472,10 @@
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
         <v>4000</v>
@@ -1346,28 +1484,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2">
         <v>40000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="L5" s="2">
         <v>917</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="N5" s="2">
         <v>68</v>
@@ -1378,10 +1516,10 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>10000</v>
@@ -1390,28 +1528,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2">
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="L6" s="2">
         <v>917</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="N6" s="2">
         <v>69</v>
@@ -1422,10 +1560,10 @@
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>20000</v>
@@ -1434,28 +1572,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G7" s="2">
         <v>200000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="L7" s="2">
         <v>917</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="N7" s="2">
         <v>70</v>
@@ -1466,10 +1604,10 @@
         <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2">
         <v>40000</v>
@@ -1478,28 +1616,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="L8" s="2">
         <v>917</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="N8" s="2">
         <v>72</v>
@@ -1520,10 +1658,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1">
         <v>30000</v>
@@ -1532,7 +1670,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1">
         <v>300000</v>
@@ -1543,10 +1681,10 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2">
         <v>30000</v>
@@ -1555,7 +1693,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2">
         <v>300000</v>
@@ -1566,19 +1704,19 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2">
         <v>300000</v>
@@ -1589,10 +1727,10 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
         <v>10487</v>
@@ -1601,7 +1739,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2">
         <v>104870</v>
@@ -1612,10 +1750,10 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
         <v>10487</v>
@@ -1624,7 +1762,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2">
         <v>104870</v>
@@ -1635,10 +1773,10 @@
         <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2">
         <v>20261</v>
@@ -1647,7 +1785,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2">
         <v>202610</v>
@@ -1658,10 +1796,10 @@
         <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2">
         <v>5000</v>
@@ -1670,7 +1808,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G7" s="2">
         <v>50000</v>
@@ -1681,19 +1819,19 @@
         <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G8" s="2">
         <v>303570</v>
@@ -1704,10 +1842,10 @@
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
         <v>5000</v>
@@ -1716,10 +1854,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1727,10 +1865,10 @@
         <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2">
         <v>14761</v>
@@ -1739,7 +1877,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G10" s="2">
         <v>147610</v>
@@ -1750,10 +1888,10 @@
         <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2">
         <v>5000</v>
@@ -1762,7 +1900,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G11" s="2">
         <v>50000</v>
@@ -1773,10 +1911,10 @@
         <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2">
         <v>1000</v>
@@ -1785,7 +1923,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G12" s="2">
         <v>10000</v>
@@ -1806,16 +1944,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1823,16 +1961,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1840,13 +1978,13 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1855,13 +1993,13 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1870,13 +2008,13 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -1885,13 +2023,13 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1900,13 +2038,13 @@
         <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -1915,13 +2053,13 @@
         <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -1930,13 +2068,13 @@
         <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2"/>
     </row>

--- a/legislator/property/output/normal/段宜康_2013-12-24_財產申報表_tmpac2a1.xlsx
+++ b/legislator/property/output/normal/段宜康_2013-12-24_財產申報表_tmpac2a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市松山區敦化段三小段01690000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市松山區敦化段三小段01710000地號</t>
@@ -126,69 +129,42 @@
     <t>tmpac2a1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺北市松山區敦化段三小段01482000建號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>1269100</t>
+  </si>
+  <si>
     <t>臺北市松山區敦化段三小段02061000建號</t>
   </si>
   <si>
     <t>臺北市松山區延吉段段三小段02423000建號</t>
   </si>
   <si>
-    <t>全部</t>
-  </si>
-  <si>
     <t>1000分之425</t>
   </si>
   <si>
     <t>50分之3</t>
   </si>
   <si>
-    <t>1269100</t>
-  </si>
-  <si>
     <t>27426(無)</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行松山分行</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>2220053</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行光復南路分行</t>
   </si>
   <si>
@@ -204,18 +180,9 @@
     <t>彰化商業銀行敦化分行</t>
   </si>
   <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>2220053</t>
-  </si>
-  <si>
     <t>1659374</t>
   </si>
   <si>
@@ -231,12 +198,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>力旺電子股份有限公司</t>
-  </si>
-  <si>
     <t>瑞傳科技股份有限公司</t>
   </si>
   <si>
@@ -261,9 +222,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>第一產物保險股份有限公司</t>
-  </si>
-  <si>
     <t>三商美邦人壽保險股份有限公司</t>
   </si>
   <si>
@@ -297,27 +255,24 @@
     <t>50000</t>
   </si>
   <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項件</t>
-  </si>
-  <si>
-    <t>價額</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
+    <t>保險名稱</t>
+  </si>
+  <si>
+    <t>要保人</t>
+  </si>
+  <si>
+    <t>備註</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
     <t>大都會人壽</t>
   </si>
   <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
     <t>康寧終身壽險</t>
   </si>
   <si>
@@ -328,12 +283,6 @@
   </si>
   <si>
     <t>好鑫安保險</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
   </si>
 </sst>
 </file>
@@ -692,13 +641,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -741,240 +690,223 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>15</v>
+        <v>1320</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="2">
-        <v>122467</v>
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2" s="2">
         <v>917</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0163289516954388</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>21.5542162379792</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1320</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="H3" s="2">
+        <v>12932</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" s="2">
         <v>917</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0163289516954388</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.0653158067817551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2">
-        <v>12932</v>
+        <v>32331</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4" s="2">
         <v>917</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0163289516954388</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.310250082213337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>19</v>
+        <v>633</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="2">
-        <v>32331</v>
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M5" s="2">
         <v>917</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>633</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="2">
-        <v>917</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="2">
-        <v>19</v>
+      <c r="P5" s="2">
+        <v>0.0302</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>19.1166</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +916,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -992,103 +924,77 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="C1" s="1">
+        <v>141.34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2">
+        <v>912.99</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2">
-        <v>141.34</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
+      </c>
+      <c r="H2" s="2">
+        <v>177897</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2">
+        <v>94.15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="2">
-        <v>912.99</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2">
-        <v>177897</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2">
-        <v>94.15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1106,179 +1012,159 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
+      </c>
+      <c r="F3" s="2">
+        <v>658832</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
-        <v>658832</v>
+        <v>460994</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2">
-        <v>460994</v>
+        <v>277142</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2">
-        <v>277142</v>
+        <v>215273</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2">
-        <v>215273</v>
+        <v>261562</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="2">
-        <v>261562</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>58</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1288,7 +1174,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1302,16 +1188,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1337,309 +1223,265 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2">
-        <v>10250</v>
+        <v>15000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2">
-        <v>102500</v>
+        <v>150000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2">
         <v>917</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N2" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2">
         <v>917</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L4" s="2">
         <v>917</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N4" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" s="2">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" s="2">
         <v>917</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N5" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" s="2">
         <v>917</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N6" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="2">
-        <v>200000</v>
+        <v>46</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L7" s="2">
         <v>917</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N7" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1">
-        <v>72</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="2">
-        <v>40000</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" s="2">
-        <v>917</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N8" s="2">
         <v>72</v>
       </c>
     </row>
@@ -1650,7 +1492,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1658,10 +1500,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1">
         <v>30000</v>
@@ -1670,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1">
         <v>300000</v>
@@ -1678,22 +1520,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="2">
-        <v>30000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2">
         <v>300000</v>
@@ -1701,36 +1543,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>23</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10487</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2">
-        <v>300000</v>
+        <v>104870</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2">
         <v>10487</v>
@@ -1739,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2">
         <v>104870</v>
@@ -1747,185 +1589,162 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2">
-        <v>10487</v>
+        <v>20261</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2">
-        <v>104870</v>
+        <v>202610</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
-        <v>20261</v>
+        <v>5000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2">
-        <v>202610</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5000</v>
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2">
-        <v>50000</v>
+        <v>303570</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>90</v>
+        <v>22</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5000</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="2">
-        <v>303570</v>
+        <v>46</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2">
-        <v>5000</v>
+        <v>14761</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>91</v>
+        <v>46</v>
+      </c>
+      <c r="G9" s="2">
+        <v>147610</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2">
-        <v>14761</v>
+        <v>5000</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2">
-        <v>147610</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="G11" s="2">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>85</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E12" s="2">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="2">
         <v>10000</v>
       </c>
     </row>
@@ -1936,7 +1755,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1944,139 +1763,122 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>116</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/legislator/property/output/normal/段宜康_2013-12-24_財產申報表_tmpac2a1.xlsx
+++ b/legislator/property/output/normal/段宜康_2013-12-24_財產申報表_tmpac2a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市松山區敦化段三小段01690000地號</t>
+  </si>
+  <si>
     <t>臺北市松山區敦化段三小段01710000地號</t>
   </si>
   <si>
@@ -132,24 +135,24 @@
     <t>臺北市松山區敦化段三小段01482000建號</t>
   </si>
   <si>
+    <t>臺北市松山區敦化段三小段02061000建號</t>
+  </si>
+  <si>
+    <t>臺北市松山區延吉段段三小段02423000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
+    <t>1000分之425</t>
+  </si>
+  <si>
+    <t>50分之3</t>
+  </si>
+  <si>
     <t>1269100</t>
   </si>
   <si>
-    <t>臺北市松山區敦化段三小段02061000建號</t>
-  </si>
-  <si>
-    <t>臺北市松山區延吉段段三小段02423000建號</t>
-  </si>
-  <si>
-    <t>1000分之425</t>
-  </si>
-  <si>
-    <t>50分之3</t>
-  </si>
-  <si>
     <t>27426(無)</t>
   </si>
   <si>
@@ -196,6 +199,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>力旺電子股份有限公司</t>
   </si>
   <si>
     <t>瑞傳科技股份有限公司</t>
@@ -641,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,172 +705,172 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>1320</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="H2" s="2">
+        <v>122467</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M2" s="2">
         <v>917</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O2" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" s="2">
         <v>0.0163289516954388</v>
       </c>
       <c r="Q2" s="2">
-        <v>21.5542162379792</v>
+        <v>0.244934275431582</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>1320</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2">
-        <v>12932</v>
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M3" s="2">
         <v>917</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P3" s="2">
         <v>0.0163289516954388</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.0653158067817551</v>
+        <v>21.5542162379792</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="2">
-        <v>32331</v>
+        <v>12932</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M4" s="2">
         <v>917</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O4" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P4" s="2">
         <v>0.0163289516954388</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.310250082213337</v>
+        <v>0.0653158067817551</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>633</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>21</v>
@@ -878,34 +884,87 @@
       <c r="G5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
+      <c r="H5" s="2">
+        <v>32331</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M5" s="2">
         <v>917</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O5" s="2">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0163289516954388</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.310250082213337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
         <v>19</v>
       </c>
-      <c r="P5" s="2">
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>633</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2">
+        <v>917</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="2">
+        <v>19</v>
+      </c>
+      <c r="P6" s="2">
         <v>0.0302</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q6" s="2">
         <v>19.1166</v>
       </c>
     </row>
@@ -916,73 +975,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2">
+        <v>141.34</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2">
+        <v>917</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1">
+      <c r="O2" s="2">
+        <v>24</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
         <v>141.34</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>912.99</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2">
-        <v>177897</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2">
-        <v>94.15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
@@ -991,10 +1104,90 @@
         <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
+      </c>
+      <c r="H3" s="2">
+        <v>177897</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2">
+        <v>917</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="2">
+        <v>25</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.425</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>388.02075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2">
+        <v>94.15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="2">
+        <v>917</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="2">
+        <v>26</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>5.649</v>
       </c>
     </row>
   </sheetData>
@@ -1004,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1012,159 +1205,179 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="2">
-        <v>658832</v>
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2">
-        <v>460994</v>
+        <v>658832</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="2">
-        <v>277142</v>
+        <v>460994</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2">
-        <v>215273</v>
+        <v>277142</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2">
-        <v>261562</v>
+        <v>215273</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2">
+        <v>261562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>55</v>
+      <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1174,7 +1387,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1188,13 +1401,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1223,265 +1436,309 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2">
-        <v>15000</v>
+        <v>10250</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2">
-        <v>150000</v>
+        <v>102500</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2">
         <v>917</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N2" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" s="2">
         <v>917</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N3" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L4" s="2">
         <v>917</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N4" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" s="2">
         <v>917</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N5" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="2">
         <v>917</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N6" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="G7" s="2">
+        <v>200000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" s="2">
         <v>917</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N7" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>72</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2">
+        <v>40000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="2">
+        <v>917</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="2">
         <v>72</v>
       </c>
     </row>
@@ -1492,7 +1749,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1500,10 +1757,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1">
         <v>30000</v>
@@ -1512,7 +1769,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1">
         <v>300000</v>
@@ -1520,22 +1777,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>24</v>
+      </c>
+      <c r="D2" s="2">
+        <v>30000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2">
         <v>300000</v>
@@ -1543,36 +1800,36 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>76</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2">
-        <v>10487</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2">
-        <v>104870</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
         <v>10487</v>
@@ -1581,7 +1838,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2">
         <v>104870</v>
@@ -1589,162 +1846,185 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
-        <v>20261</v>
+        <v>10487</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2">
-        <v>202610</v>
+        <v>104870</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
-        <v>5000</v>
+        <v>20261</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2">
-        <v>50000</v>
+        <v>202610</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>76</v>
+        <v>23</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5000</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2">
-        <v>303570</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5000</v>
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>77</v>
+        <v>47</v>
+      </c>
+      <c r="G8" s="2">
+        <v>303570</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2">
-        <v>14761</v>
+        <v>5000</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="2">
-        <v>147610</v>
+        <v>47</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
-        <v>5000</v>
+        <v>14761</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10" s="2">
-        <v>50000</v>
+        <v>147610</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>85</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="2">
         <v>10000</v>
       </c>
     </row>
@@ -1755,7 +2035,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1763,122 +2043,139 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
+        <v>115</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
         <v>116</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/legislator/property/output/normal/段宜康_2013-12-24_財產申報表_tmpac2a1.xlsx
+++ b/legislator/property/output/normal/段宜康_2013-12-24_財產申報表_tmpac2a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>27426(無)</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>臺灣銀行松山分行</t>
@@ -1057,7 +1060,7 @@
         <v>43</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>33</v>
@@ -1110,7 +1113,7 @@
         <v>177897</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>33</v>
@@ -1163,7 +1166,7 @@
         <v>44</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>33</v>
@@ -1205,19 +1208,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1225,19 +1228,19 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1245,19 +1248,19 @@
         <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1265,13 +1268,13 @@
         <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>35</v>
@@ -1285,13 +1288,13 @@
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1305,13 +1308,13 @@
         <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -1325,13 +1328,13 @@
         <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -1345,13 +1348,13 @@
         <v>57</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>35</v>
@@ -1365,19 +1368,19 @@
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1401,13 +1404,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1439,7 +1442,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>35</v>
@@ -1451,13 +1454,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2">
         <v>102500</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1483,7 +1486,7 @@
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>35</v>
@@ -1495,13 +1498,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2">
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>33</v>
@@ -1527,7 +1530,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>35</v>
@@ -1539,13 +1542,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2">
         <v>100000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>33</v>
@@ -1571,7 +1574,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>35</v>
@@ -1583,13 +1586,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2">
         <v>40000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>33</v>
@@ -1615,7 +1618,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>35</v>
@@ -1627,13 +1630,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2">
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>33</v>
@@ -1659,7 +1662,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>35</v>
@@ -1671,13 +1674,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="2">
         <v>200000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>33</v>
@@ -1703,7 +1706,7 @@
         <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>35</v>
@@ -1715,13 +1718,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>33</v>
@@ -1757,7 +1760,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
@@ -1769,7 +1772,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1">
         <v>300000</v>
@@ -1780,7 +1783,7 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>24</v>
@@ -1792,7 +1795,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2">
         <v>300000</v>
@@ -1803,19 +1806,19 @@
         <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2">
         <v>300000</v>
@@ -1826,7 +1829,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1838,7 +1841,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2">
         <v>104870</v>
@@ -1849,7 +1852,7 @@
         <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
@@ -1861,7 +1864,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2">
         <v>104870</v>
@@ -1872,7 +1875,7 @@
         <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>23</v>
@@ -1884,7 +1887,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2">
         <v>202610</v>
@@ -1895,7 +1898,7 @@
         <v>80</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>23</v>
@@ -1907,7 +1910,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="2">
         <v>50000</v>
@@ -1918,19 +1921,19 @@
         <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2">
         <v>303570</v>
@@ -1941,7 +1944,7 @@
         <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -1953,10 +1956,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1964,7 +1967,7 @@
         <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
@@ -1976,7 +1979,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2">
         <v>147610</v>
@@ -1987,7 +1990,7 @@
         <v>84</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
@@ -1999,7 +2002,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2">
         <v>50000</v>
@@ -2010,7 +2013,7 @@
         <v>85</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>23</v>
@@ -2022,7 +2025,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" s="2">
         <v>10000</v>
@@ -2043,16 +2046,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2060,16 +2063,16 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2077,10 +2080,10 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>35</v>
@@ -2092,10 +2095,10 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>35</v>
@@ -2107,10 +2110,10 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>35</v>
@@ -2122,10 +2125,10 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>35</v>
@@ -2137,10 +2140,10 @@
         <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>35</v>
@@ -2152,10 +2155,10 @@
         <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
@@ -2167,10 +2170,10 @@
         <v>116</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>35</v>

--- a/legislator/property/output/normal/段宜康_2013-12-24_財產申報表_tmpac2a1.xlsx
+++ b/legislator/property/output/normal/段宜康_2013-12-24_財產申報表_tmpac2a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="91">
   <si>
     <t>name</t>
   </si>
@@ -159,49 +159,49 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行松山分行</t>
   </si>
   <si>
+    <t>合作金庫商業銀行光復南路分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行敦南分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行忠興分行</t>
+  </si>
+  <si>
+    <t>彰化商業銀行敦化分行</t>
+  </si>
+  <si>
     <t>綜合存款</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>2220053</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行光復南路分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行敦南分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行忠興分行</t>
-  </si>
-  <si>
-    <t>彰化商業銀行敦化分行</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>1659374</t>
-  </si>
-  <si>
-    <t>1000342</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>力旺電子股份有限公司</t>
@@ -1200,13 +1200,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
@@ -1217,33 +1217,75 @@
         <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2" s="2">
+        <v>2220053</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="2">
+        <v>917</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>52</v>
       </c>
@@ -1251,19 +1293,40 @@
         <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="2">
+        <v>1659374</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="2">
+        <v>917</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>53</v>
       </c>
@@ -1271,10 +1334,10 @@
         <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>35</v>
@@ -1282,8 +1345,29 @@
       <c r="F4" s="2">
         <v>658832</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="2">
+        <v>917</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>54</v>
       </c>
@@ -1291,10 +1375,10 @@
         <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1302,8 +1386,29 @@
       <c r="F5" s="2">
         <v>460994</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="2">
+        <v>917</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>55</v>
       </c>
@@ -1311,10 +1416,10 @@
         <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
@@ -1322,8 +1427,29 @@
       <c r="F6" s="2">
         <v>277142</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="2">
+        <v>917</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>56</v>
       </c>
@@ -1331,10 +1457,10 @@
         <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>24</v>
@@ -1342,8 +1468,29 @@
       <c r="F7" s="2">
         <v>215273</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="2">
+        <v>917</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>57</v>
       </c>
@@ -1351,10 +1498,10 @@
         <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>35</v>
@@ -1362,8 +1509,29 @@
       <c r="F8" s="2">
         <v>261562</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="2">
+        <v>917</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>58</v>
       </c>
@@ -1371,16 +1539,37 @@
         <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>57</v>
+      <c r="F9" s="2">
+        <v>1000342</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="2">
+        <v>917</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="2">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1404,13 +1593,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1454,7 +1643,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2">
         <v>102500</v>
@@ -1498,7 +1687,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2">
         <v>150000</v>
@@ -1542,7 +1731,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2">
         <v>100000</v>
@@ -1586,7 +1775,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2">
         <v>40000</v>
@@ -1630,7 +1819,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2">
         <v>100000</v>
@@ -1674,7 +1863,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2">
         <v>200000</v>
@@ -1718,7 +1907,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>68</v>
@@ -1772,7 +1961,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1">
         <v>300000</v>
@@ -1795,7 +1984,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2">
         <v>300000</v>
@@ -1818,7 +2007,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2">
         <v>300000</v>
@@ -1841,7 +2030,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G4" s="2">
         <v>104870</v>
@@ -1864,7 +2053,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2">
         <v>104870</v>
@@ -1887,7 +2076,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G6" s="2">
         <v>202610</v>
@@ -1910,7 +2099,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G7" s="2">
         <v>50000</v>
@@ -1933,7 +2122,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G8" s="2">
         <v>303570</v>
@@ -1956,7 +2145,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>80</v>
@@ -1979,7 +2168,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G10" s="2">
         <v>147610</v>
@@ -2002,7 +2191,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G11" s="2">
         <v>50000</v>
@@ -2025,7 +2214,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G12" s="2">
         <v>10000</v>

--- a/legislator/property/output/normal/段宜康_2013-12-24_財產申報表_tmpac2a1.xlsx
+++ b/legislator/property/output/normal/段宜康_2013-12-24_財產申報表_tmpac2a1.xlsx
@@ -12,14 +12,13 @@
     <sheet name="存款" sheetId="3" r:id="rId3"/>
     <sheet name="股票" sheetId="4" r:id="rId4"/>
     <sheet name="保險" sheetId="5" r:id="rId5"/>
-    <sheet name="具有相當價值之財產" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="88">
   <si>
     <t>name</t>
   </si>
@@ -225,64 +224,55 @@
     <t>豐藝電子股份有限公司</t>
   </si>
   <si>
+    <t>第一產物保險股份有限公司</t>
+  </si>
+  <si>
+    <t>三商美邦人壽保險股份有限公司</t>
+  </si>
+  <si>
+    <t>廣積科技股份有限公司</t>
+  </si>
+  <si>
+    <t>中國鋼鐵股份有限公司</t>
+  </si>
+  <si>
+    <t>一詮精密工業股份有限公司</t>
+  </si>
+  <si>
+    <t>太子建設開發股份有限公司</t>
+  </si>
+  <si>
+    <t>德律科技股份有限公司</t>
+  </si>
+  <si>
+    <t>新曰興股份有限公司</t>
+  </si>
+  <si>
+    <t>譜瑞科技股份有限公司</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>30357</t>
+  </si>
+  <si>
     <t>.400000</t>
   </si>
   <si>
+    <t>50000</t>
+  </si>
+  <si>
     <t>stock</t>
   </si>
   <si>
-    <t>三商美邦人壽保險股份有限公司</t>
-  </si>
-  <si>
-    <t>廣積科技股份有限公司</t>
-  </si>
-  <si>
-    <t>中國鋼鐵股份有限公司</t>
-  </si>
-  <si>
-    <t>一詮精密工業股份有限公司</t>
-  </si>
-  <si>
-    <t>太子建設開發股份有限公司</t>
-  </si>
-  <si>
-    <t>德律科技股份有限公司</t>
-  </si>
-  <si>
-    <t>新曰興股份有限公司</t>
-  </si>
-  <si>
-    <t>譜瑞科技股份有限公司</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>30357</t>
-  </si>
-  <si>
-    <t>50000</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>康寧終身壽險</t>
+  </si>
+  <si>
     <t>大都會人壽</t>
-  </si>
-  <si>
-    <t>康寧終身壽險</t>
   </si>
   <si>
     <t>康福終身壽險</t>
@@ -1579,7 +1569,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1649,7 +1639,7 @@
         <v>102500</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -1693,7 +1683,7 @@
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>33</v>
@@ -1737,7 +1727,7 @@
         <v>100000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>33</v>
@@ -1781,7 +1771,7 @@
         <v>40000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>33</v>
@@ -1825,7 +1815,7 @@
         <v>100000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>33</v>
@@ -1869,7 +1859,7 @@
         <v>200000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>33</v>
@@ -1910,10 +1900,10 @@
         <v>57</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>33</v>
@@ -1932,6 +1922,578 @@
       </c>
       <c r="N8" s="2">
         <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>73</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="2">
+        <v>300000</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="2">
+        <v>917</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>74</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="2">
+        <v>300000</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="2">
+        <v>917</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N10" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>75</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2">
+        <v>30000</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="2">
+        <v>300000</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="2">
+        <v>917</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1">
+        <v>76</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="2">
+        <v>300000</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="2">
+        <v>917</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>77</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2">
+        <v>10487</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="2">
+        <v>104870</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="2">
+        <v>917</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1">
+        <v>78</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2">
+        <v>10487</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="2">
+        <v>104870</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="2">
+        <v>917</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1">
+        <v>79</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2">
+        <v>20261</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="2">
+        <v>202610</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="2">
+        <v>917</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1">
+        <v>80</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E16" s="2">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="2">
+        <v>917</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1">
+        <v>81</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="2">
+        <v>303570</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="2">
+        <v>917</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1">
+        <v>82</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="2">
+        <v>917</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N18" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1">
+        <v>83</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2">
+        <v>14761</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="2">
+        <v>147610</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="2">
+        <v>917</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N19" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="1">
+        <v>84</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="2">
+        <v>917</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1">
+        <v>85</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="2">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="2">
+        <v>917</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" s="2">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1941,433 +2503,120 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1">
-        <v>30000</v>
-      </c>
-      <c r="E1" s="1">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="1">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2">
-        <v>30000</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="2">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>83</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="2">
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10487</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="2">
-        <v>104870</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>83</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10487</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="2">
-        <v>104870</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>83</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2">
-        <v>20261</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="2">
-        <v>202610</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>85</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="2">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>86</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="2">
-        <v>303570</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>82</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2">
-        <v>5000</v>
-      </c>
-      <c r="E9" s="2">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>83</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2">
-        <v>14761</v>
-      </c>
-      <c r="E10" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="2">
-        <v>147610</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>84</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2">
-        <v>5000</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="2">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>85</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E12" s="2">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>109</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>110</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>111</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>112</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>113</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>114</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>115</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>116</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/legislator/property/output/normal/段宜康_2013-12-24_財產申報表_tmpac2a1.xlsx
+++ b/legislator/property/output/normal/段宜康_2013-12-24_財產申報表_tmpac2a1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="90">
   <si>
     <t>name</t>
   </si>
@@ -266,15 +266,18 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>南山人壽</t>
   </si>
   <si>
+    <t>大都會人壽</t>
+  </si>
+  <si>
     <t>康寧終身壽險</t>
   </si>
   <si>
-    <t>大都會人壽</t>
-  </si>
-  <si>
     <t>康福終身壽險</t>
   </si>
   <si>
@@ -282,6 +285,9 @@
   </si>
   <si>
     <t>好鑫安保險</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -2503,108 +2509,255 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2">
+        <v>917</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="2">
+        <v>917</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2">
+        <v>917</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>113</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2">
+        <v>917</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="2">
+        <v>917</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="2">
+        <v>917</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>116</v>
       </c>
@@ -2612,10 +2765,31 @@
         <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="2">
+        <v>917</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="2">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
